--- a/BalanceSheet.xlsx
+++ b/BalanceSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE4D4F32-0676-4A0B-BE39-D48E532D6189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Revenue</t>
   </si>
@@ -62,12 +62,75 @@
   </si>
   <si>
     <t>Income Statement</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>Sales General and Administrative Expenses (SG&amp;A)</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>9K</t>
+  </si>
+  <si>
+    <t>21K</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Non Operating Profit</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>5K</t>
+  </si>
+  <si>
+    <t>Pre Tax</t>
+  </si>
+  <si>
+    <t>27K</t>
+  </si>
+  <si>
+    <t>8.1K</t>
+  </si>
+  <si>
+    <t>18.9K</t>
+  </si>
+  <si>
+    <t>ASSET (100K)</t>
+  </si>
+  <si>
+    <t>EQUITY  (100k)</t>
+  </si>
+  <si>
+    <t>DEBT  (100K)</t>
+  </si>
+  <si>
+    <t>CASH (10K)</t>
+  </si>
+  <si>
+    <t>EQUITY (10K)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +185,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -315,39 +402,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,9 +491,82 @@
     <xf numFmtId="3" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -458,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -635,18 +839,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H5:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,106 +865,106 @@
   </cols>
   <sheetData>
     <row r="5" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="2">
         <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="4">
         <v>-1000000</v>
       </c>
     </row>
     <row r="8" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="10">
         <v>2000000</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="6">
         <v>-500000</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="8">
         <v>-200000</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="4">
         <v>-300000</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="10">
         <v>1000000</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="6">
         <v>-500000</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="4">
         <v>-150000</v>
       </c>
     </row>
     <row r="15" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="12">
         <v>350000</v>
       </c>
     </row>
@@ -774,4 +978,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="I4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="31"/>
+      <c r="I7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="31"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="32"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J6:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BalanceSheet.xlsx
+++ b/BalanceSheet.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>Revenue</t>
   </si>
@@ -125,6 +127,60 @@
   </si>
   <si>
     <t>EQUITY (10K)</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>Depreciation and Amortization</t>
+  </si>
+  <si>
+    <t>25K</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>EBIT = 28K</t>
+  </si>
+  <si>
+    <t>EBITDA = 33K</t>
+  </si>
+  <si>
+    <t>Income statement</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>Unique Strength</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>200K shares</t>
+  </si>
+  <si>
+    <t>Pre Money</t>
+  </si>
+  <si>
+    <t>500M</t>
+  </si>
+  <si>
+    <t>1M shares</t>
+  </si>
+  <si>
+    <t>Post Money</t>
   </si>
 </sst>
 </file>
@@ -148,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +265,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -473,11 +553,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -520,6 +757,41 @@
     <xf numFmtId="3" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,15 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,8 +828,78 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,10 +1198,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
@@ -893,10 +1226,10 @@
       <c r="I8" s="10">
         <v>2000000</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="42" t="s">
         <v>11</v>
       </c>
     </row>
@@ -907,8 +1240,8 @@
       <c r="I9" s="6">
         <v>-500000</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="7" t="s">
@@ -917,8 +1250,8 @@
       <c r="I10" s="8">
         <v>-200000</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="3" t="s">
@@ -927,8 +1260,8 @@
       <c r="I11" s="4">
         <v>-300000</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="30" t="s">
+      <c r="K11" s="40"/>
+      <c r="L11" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -939,8 +1272,8 @@
       <c r="I12" s="10">
         <v>1000000</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="31"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="5" t="s">
@@ -949,8 +1282,8 @@
       <c r="I13" s="6">
         <v>-500000</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="32"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="3" t="s">
@@ -984,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,14 +1350,14 @@
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="I4" s="37" t="s">
+      <c r="G4" s="50"/>
+      <c r="I4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -1047,16 +1380,16 @@
       <c r="D6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="51" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1070,12 +1403,12 @@
       <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="31"/>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="46"/>
+      <c r="I7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -1087,10 +1420,10 @@
       <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="31"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="35"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="46"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -1102,10 +1435,10 @@
       <c r="D9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="31"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="35"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1117,10 +1450,10 @@
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="31"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="35"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="46"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
@@ -1132,10 +1465,10 @@
       <c r="D11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="32"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="36"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -1147,8 +1480,8 @@
       <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1174,4 +1507,278 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="70"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="70"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="62"/>
+      <c r="D11" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="62"/>
+      <c r="D12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="63"/>
+      <c r="D13" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="F16" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BalanceSheet.xlsx
+++ b/BalanceSheet.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>Revenue</t>
   </si>
@@ -181,6 +182,39 @@
   </si>
   <si>
     <t>Post Money</t>
+  </si>
+  <si>
+    <t>ASSETS (10M)</t>
+  </si>
+  <si>
+    <t>DEBT(6M)</t>
+  </si>
+  <si>
+    <t>EQUITY(4M)</t>
+  </si>
+  <si>
+    <t>Before Bankruptcy</t>
+  </si>
+  <si>
+    <t>EQUITY(3M)</t>
+  </si>
+  <si>
+    <t>CASE: A</t>
+  </si>
+  <si>
+    <t>ASSETS (8M)</t>
+  </si>
+  <si>
+    <t>DEBT(4M)</t>
+  </si>
+  <si>
+    <t>CASE: B</t>
+  </si>
+  <si>
+    <t>ASSETS (5M)</t>
+  </si>
+  <si>
+    <t>DEBT(2M)</t>
   </si>
 </sst>
 </file>
@@ -204,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -714,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -792,6 +832,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,12 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -865,18 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -898,6 +941,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1253,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
@@ -1226,10 +1281,10 @@
       <c r="I8" s="10">
         <v>2000000</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1240,8 +1295,8 @@
       <c r="I9" s="6">
         <v>-500000</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="43"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="7" t="s">
@@ -1250,8 +1305,8 @@
       <c r="I10" s="8">
         <v>-200000</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="44"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="3" t="s">
@@ -1260,8 +1315,8 @@
       <c r="I11" s="4">
         <v>-300000</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="47"/>
+      <c r="L11" s="52" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1272,8 +1327,8 @@
       <c r="I12" s="10">
         <v>1000000</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="5" t="s">
@@ -1282,8 +1337,8 @@
       <c r="I13" s="6">
         <v>-500000</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="3" t="s">
@@ -1350,14 +1405,14 @@
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="57"/>
+      <c r="I4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -1380,16 +1435,16 @@
       <c r="D6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="52" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="58" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1403,12 +1458,12 @@
       <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="46"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="53"/>
+      <c r="I7" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="52"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
@@ -1420,10 +1475,10 @@
       <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="46"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="52"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="53"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -1435,10 +1490,10 @@
       <c r="D9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="46"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="52"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="53"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -1450,10 +1505,10 @@
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="46"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="52"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="53"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
@@ -1465,10 +1520,10 @@
       <c r="D11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="47"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="53"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="54"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -1480,7 +1535,7 @@
       <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="41"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="25" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1634,7 @@
       <c r="C9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="61" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1590,8 +1645,8 @@
       <c r="C10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="64" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1602,8 +1657,8 @@
       <c r="C11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1651,123 +1706,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="73" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="70"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="74"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="70"/>
-      <c r="G8" s="73"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="74"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="62"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="66" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="62"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="66" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="63"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="66" t="s">
+      <c r="F13" s="68"/>
+      <c r="G13" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="3:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="F16" s="68" t="s">
+      <c r="D16" s="69"/>
+      <c r="F16" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1781,4 +1836,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="G4" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="J4" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="4:11" ht="3.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="78"/>
+    </row>
+    <row r="8" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="53"/>
+      <c r="E8" s="78"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="75"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="53"/>
+      <c r="E9" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="54"/>
+      <c r="E10" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>